--- a/biology/Mycologie/Hebeloma_incarnatulum/Hebeloma_incarnatulum.xlsx
+++ b/biology/Mycologie/Hebeloma_incarnatulum/Hebeloma_incarnatulum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hébélome rose chair
 Hebeloma incarnatulum, l’Hébélome rose chair, est une espèce de champignons agaricomycètes de la famille des Hymenogastraceae.
@@ -512,11 +524,48 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>L'espèce Hebeloma incarnatulum a été décrite en 1984 par le mycologue américain Alexander Hanchett Smith (1904-1986)[1],[2].
-Publication originale
-(en) Alexander H. Smith, « Studies of Species of Hebeloma (Fr.) Kummer from the Great Lakes Region of North America I », Sydowia, Verlag Ferdinand Berger &amp; Söhne (d), vol. 37,‎ 1984, p. 271-283 (ISSN 0082-0598, OCLC 1767032, lire en ligne)</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Hebeloma incarnatulum a été décrite en 1984 par le mycologue américain Alexander Hanchett Smith (1904-1986),.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Hebeloma_incarnatulum</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hebeloma_incarnatulum</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(en) Alexander H. Smith, « Studies of Species of Hebeloma (Fr.) Kummer from the Great Lakes Region of North America I », Sydowia, Verlag Ferdinand Berger &amp; Söhne (d), vol. 37,‎ 1984, p. 271-283 (ISSN 0082-0598, OCLC 1767032, lire en ligne)</t>
         </is>
       </c>
     </row>
